--- a/sofaplayer/Serie_A/Napoli_stats.xlsx
+++ b/sofaplayer/Serie_A/Napoli_stats.xlsx
@@ -7080,47 +7080,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mathías Olivera</t>
+          <t>Amir Rrahmani</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>805078</v>
+        <v>332155</v>
       </c>
       <c r="E19" t="n">
-        <v>6.5928571428571</v>
+        <v>7.2</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>666</v>
+        <v>1290</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9926</v>
+        <v>0.6763</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.11995293</v>
+        <v>0.22813261</v>
       </c>
       <c r="AB19" t="n">
-        <v>486</v>
+        <v>1364</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7165,181 +7165,181 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>310</v>
+        <v>1112</v>
       </c>
       <c r="AF19" t="n">
-        <v>87.078651685393</v>
+        <v>92.05298013245</v>
       </c>
       <c r="AG19" t="n">
-        <v>356</v>
+        <v>1208</v>
       </c>
       <c r="AH19" t="n">
-        <v>169</v>
+        <v>701</v>
       </c>
       <c r="AI19" t="n">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="AJ19" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>33.333333333333</v>
+        <v>42.1875</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="AS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU19" t="n">
         <v>3</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>89</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>65.92592592592599</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>56</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>108</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>96</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
         <v>7</v>
       </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>36</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>62.068965517241</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>26</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>63.414634146341</v>
-      </c>
-      <c r="BE19" t="n">
+      <c r="CA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>35</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
         <v>10</v>
       </c>
-      <c r="BF19" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>62</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>46</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>6</v>
-      </c>
       <c r="CK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7363,58 +7363,58 @@
         <v>3</v>
       </c>
       <c r="CS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>46</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>64</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>63.157894736842</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>738</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>470</v>
+      </c>
+      <c r="DH19" t="n">
         <v>3</v>
       </c>
-      <c r="CT19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>22</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>18</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>11</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>57.894736842105</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>182</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>174</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
       <c r="DI19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2164563</v>
+        <v>2164599</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7436,47 +7436,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Amir Rrahmani</t>
+          <t>Mathías Olivera</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>332155</v>
+        <v>805078</v>
       </c>
       <c r="E20" t="n">
-        <v>7.2</v>
+        <v>6.5928571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1290</v>
+        <v>666</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6763</v>
+        <v>0.9926</v>
       </c>
       <c r="L20" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -7506,13 +7506,13 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.22813261</v>
+        <v>0.11995293</v>
       </c>
       <c r="AB20" t="n">
-        <v>1364</v>
+        <v>486</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7521,181 +7521,181 @@
         <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>1112</v>
+        <v>310</v>
       </c>
       <c r="AF20" t="n">
-        <v>92.05298013245</v>
+        <v>87.078651685393</v>
       </c>
       <c r="AG20" t="n">
-        <v>1208</v>
+        <v>356</v>
       </c>
       <c r="AH20" t="n">
-        <v>701</v>
+        <v>169</v>
       </c>
       <c r="AI20" t="n">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="AJ20" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AL20" t="n">
-        <v>42.1875</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>62.068965517241</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>63.414634146341</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>58.823529411765</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>62</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>46</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
         <v>3</v>
       </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>89</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>65.92592592592599</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>33</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>70</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>108</v>
-      </c>
-      <c r="BH20" t="n">
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
         <v>15</v>
       </c>
-      <c r="BI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
+      <c r="CD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>6</v>
       </c>
-      <c r="BO20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>108</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>96</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>7</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>35</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>10</v>
-      </c>
       <c r="CK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7719,16 +7719,16 @@
         <v>3</v>
       </c>
       <c r="CS20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CT20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="CV20" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="DA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB20" t="n">
-        <v>63.157894736842</v>
+        <v>57.894736842105</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="DG20" t="n">
-        <v>470</v>
+        <v>174</v>
       </c>
       <c r="DH20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2164599</v>
+        <v>2164563</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
